--- a/results/mp/logistic/corona/confidence/84/stop-words-topk-masking-0.35/avg_0.004_scores.xlsx
+++ b/results/mp/logistic/corona/confidence/84/stop-words-topk-masking-0.35/avg_0.004_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="54">
   <si>
     <t>anchor score</t>
   </si>
@@ -43,39 +43,36 @@
     <t>crude</t>
   </si>
   <si>
+    <t>crisis</t>
+  </si>
+  <si>
+    <t>war</t>
+  </si>
+  <si>
+    <t>fraud</t>
+  </si>
+  <si>
     <t>die</t>
   </si>
   <si>
-    <t>crisis</t>
-  </si>
-  <si>
-    <t>war</t>
-  </si>
-  <si>
-    <t>fraud</t>
-  </si>
-  <si>
     <t>drop</t>
   </si>
   <si>
+    <t>fears</t>
+  </si>
+  <si>
+    <t>panic</t>
+  </si>
+  <si>
     <t>sc</t>
   </si>
   <si>
-    <t>panic</t>
-  </si>
-  <si>
     <t>low</t>
   </si>
   <si>
-    <t>fears</t>
-  </si>
-  <si>
     <t>emergency</t>
   </si>
   <si>
-    <t>empty</t>
-  </si>
-  <si>
     <t>stop</t>
   </si>
   <si>
@@ -88,6 +85,9 @@
     <t>co</t>
   </si>
   <si>
+    <t>19</t>
+  </si>
+  <si>
     <t>negative</t>
   </si>
   <si>
@@ -103,76 +103,73 @@
     <t>great</t>
   </si>
   <si>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>hand</t>
+  </si>
+  <si>
+    <t>support</t>
+  </si>
+  <si>
+    <t>safe</t>
+  </si>
+  <si>
+    <t>thanks</t>
+  </si>
+  <si>
+    <t>confidence</t>
+  </si>
+  <si>
+    <t>positive</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>heroes</t>
+  </si>
+  <si>
+    <t>fresh</t>
+  </si>
+  <si>
+    <t>better</t>
+  </si>
+  <si>
     <t>special</t>
   </si>
   <si>
-    <t>support</t>
-  </si>
-  <si>
-    <t>hand</t>
-  </si>
-  <si>
-    <t>positive</t>
-  </si>
-  <si>
-    <t>heroes</t>
-  </si>
-  <si>
-    <t>safe</t>
-  </si>
-  <si>
-    <t>thanks</t>
-  </si>
-  <si>
-    <t>interesting</t>
-  </si>
-  <si>
-    <t>good</t>
+    <t>gt</t>
+  </si>
+  <si>
+    <t>like</t>
   </si>
   <si>
     <t>join</t>
   </si>
   <si>
-    <t>thank</t>
-  </si>
-  <si>
-    <t>better</t>
-  </si>
-  <si>
-    <t>confidence</t>
-  </si>
-  <si>
-    <t>fresh</t>
-  </si>
-  <si>
-    <t>gt</t>
-  </si>
-  <si>
-    <t>like</t>
-  </si>
-  <si>
     <t>well</t>
   </si>
   <si>
+    <t>hope</t>
+  </si>
+  <si>
     <t>help</t>
   </si>
   <si>
-    <t>hope</t>
-  </si>
-  <si>
     <t>relief</t>
   </si>
   <si>
     <t>please</t>
   </si>
   <si>
+    <t>care</t>
+  </si>
+  <si>
     <t>share</t>
   </si>
   <si>
-    <t>care</t>
-  </si>
-  <si>
-    <t>safety</t>
+    <t>increase</t>
   </si>
   <si>
     <t>protect</t>
@@ -536,7 +533,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q32"/>
+  <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -547,7 +544,7 @@
         <v>24</v>
       </c>
       <c r="J1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -629,13 +626,13 @@
         <v>25</v>
       </c>
       <c r="K3">
-        <v>0.9565217391304348</v>
+        <v>0.9347826086956522</v>
       </c>
       <c r="L3">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="M3">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -647,7 +644,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -655,13 +652,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.8108108108108109</v>
+        <v>0.8082191780821918</v>
       </c>
       <c r="C4">
-        <v>30</v>
+        <v>236</v>
       </c>
       <c r="D4">
-        <v>30</v>
+        <v>236</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -673,7 +670,7 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>7</v>
+        <v>56</v>
       </c>
       <c r="J4" s="1" t="s">
         <v>26</v>
@@ -705,13 +702,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.8082191780821918</v>
+        <v>0.7631578947368421</v>
       </c>
       <c r="C5">
-        <v>236</v>
+        <v>29</v>
       </c>
       <c r="D5">
-        <v>236</v>
+        <v>29</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -723,7 +720,7 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>56</v>
+        <v>9</v>
       </c>
       <c r="J5" s="1" t="s">
         <v>27</v>
@@ -755,13 +752,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.7894736842105263</v>
+        <v>0.7222222222222222</v>
       </c>
       <c r="C6">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D6">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -773,19 +770,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="J6" s="1" t="s">
         <v>28</v>
       </c>
       <c r="K6">
-        <v>0.8839285714285714</v>
+        <v>0.8482142857142857</v>
       </c>
       <c r="L6">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="M6">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -797,7 +794,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -805,13 +802,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.7777777777777778</v>
+        <v>0.7027027027027027</v>
       </c>
       <c r="C7">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D7">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -823,19 +820,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="J7" s="1" t="s">
         <v>29</v>
       </c>
       <c r="K7">
-        <v>0.8333333333333334</v>
+        <v>0.8203125</v>
       </c>
       <c r="L7">
-        <v>30</v>
+        <v>105</v>
       </c>
       <c r="M7">
-        <v>30</v>
+        <v>105</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -847,7 +844,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>6</v>
+        <v>23</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -855,13 +852,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.6101694915254238</v>
+        <v>0.576271186440678</v>
       </c>
       <c r="C8">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D8">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -873,19 +870,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="J8" s="1" t="s">
         <v>30</v>
       </c>
       <c r="K8">
-        <v>0.8301886792452831</v>
+        <v>0.814621409921671</v>
       </c>
       <c r="L8">
-        <v>88</v>
+        <v>312</v>
       </c>
       <c r="M8">
-        <v>88</v>
+        <v>312</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -897,7 +894,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>18</v>
+        <v>71</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -905,13 +902,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.5714285714285714</v>
+        <v>0.5686274509803921</v>
       </c>
       <c r="C9">
-        <v>108</v>
+        <v>29</v>
       </c>
       <c r="D9">
-        <v>108</v>
+        <v>29</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -923,19 +920,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>81</v>
+        <v>22</v>
       </c>
       <c r="J9" s="1" t="s">
         <v>31</v>
       </c>
       <c r="K9">
-        <v>0.8276762402088773</v>
+        <v>0.7830188679245284</v>
       </c>
       <c r="L9">
-        <v>317</v>
+        <v>83</v>
       </c>
       <c r="M9">
-        <v>317</v>
+        <v>83</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -947,7 +944,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>66</v>
+        <v>23</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -955,13 +952,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.562015503875969</v>
+        <v>0.5426356589147286</v>
       </c>
       <c r="C10">
-        <v>290</v>
+        <v>280</v>
       </c>
       <c r="D10">
-        <v>290</v>
+        <v>280</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -973,19 +970,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>226</v>
+        <v>236</v>
       </c>
       <c r="J10" s="1" t="s">
         <v>32</v>
       </c>
       <c r="K10">
-        <v>0.8103448275862069</v>
+        <v>0.7816901408450704</v>
       </c>
       <c r="L10">
-        <v>47</v>
+        <v>111</v>
       </c>
       <c r="M10">
-        <v>47</v>
+        <v>111</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -997,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>11</v>
+        <v>31</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1005,13 +1002,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.5100671140939598</v>
+        <v>0.5238095238095238</v>
       </c>
       <c r="C11">
-        <v>76</v>
+        <v>99</v>
       </c>
       <c r="D11">
-        <v>76</v>
+        <v>99</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1023,19 +1020,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>73</v>
+        <v>90</v>
       </c>
       <c r="J11" s="1" t="s">
         <v>33</v>
       </c>
       <c r="K11">
-        <v>0.8085106382978723</v>
+        <v>0.7804878048780488</v>
       </c>
       <c r="L11">
-        <v>38</v>
+        <v>64</v>
       </c>
       <c r="M11">
-        <v>38</v>
+        <v>64</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1047,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>9</v>
+        <v>18</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1055,13 +1052,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.5098039215686274</v>
+        <v>0.4765100671140939</v>
       </c>
       <c r="C12">
-        <v>26</v>
+        <v>71</v>
       </c>
       <c r="D12">
-        <v>26</v>
+        <v>71</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1073,19 +1070,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>25</v>
+        <v>78</v>
       </c>
       <c r="J12" s="1" t="s">
         <v>34</v>
       </c>
       <c r="K12">
-        <v>0.8028169014084507</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="L12">
-        <v>114</v>
+        <v>28</v>
       </c>
       <c r="M12">
-        <v>114</v>
+        <v>28</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1097,7 +1094,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>28</v>
+        <v>8</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1105,13 +1102,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.44</v>
+        <v>0.4266666666666667</v>
       </c>
       <c r="C13">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D13">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1123,19 +1120,19 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J13" s="1" t="s">
         <v>35</v>
       </c>
       <c r="K13">
-        <v>0.7926829268292683</v>
+        <v>0.7758620689655172</v>
       </c>
       <c r="L13">
-        <v>65</v>
+        <v>45</v>
       </c>
       <c r="M13">
-        <v>65</v>
+        <v>45</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1147,7 +1144,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1155,13 +1152,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.2888888888888889</v>
+        <v>0.257936507936508</v>
       </c>
       <c r="C14">
-        <v>26</v>
+        <v>65</v>
       </c>
       <c r="D14">
-        <v>26</v>
+        <v>65</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1173,19 +1170,19 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>64</v>
+        <v>187</v>
       </c>
       <c r="J14" s="1" t="s">
         <v>36</v>
       </c>
       <c r="K14">
-        <v>0.7878787878787878</v>
+        <v>0.76875</v>
       </c>
       <c r="L14">
-        <v>26</v>
+        <v>123</v>
       </c>
       <c r="M14">
-        <v>26</v>
+        <v>123</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1197,7 +1194,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>7</v>
+        <v>37</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1205,7 +1202,7 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.246031746031746</v>
+        <v>0.1662198391420912</v>
       </c>
       <c r="C15">
         <v>62</v>
@@ -1223,19 +1220,19 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>190</v>
+        <v>311</v>
       </c>
       <c r="J15" s="1" t="s">
         <v>37</v>
       </c>
       <c r="K15">
-        <v>0.76875</v>
+        <v>0.7659574468085106</v>
       </c>
       <c r="L15">
-        <v>123</v>
+        <v>36</v>
       </c>
       <c r="M15">
-        <v>123</v>
+        <v>36</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1247,7 +1244,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>37</v>
+        <v>11</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1255,13 +1252,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.1742627345844504</v>
+        <v>0.08666666666666667</v>
       </c>
       <c r="C16">
-        <v>65</v>
+        <v>26</v>
       </c>
       <c r="D16">
-        <v>65</v>
+        <v>26</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1273,19 +1270,19 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>308</v>
+        <v>274</v>
       </c>
       <c r="J16" s="1" t="s">
         <v>38</v>
       </c>
       <c r="K16">
-        <v>0.7674418604651163</v>
+        <v>0.75</v>
       </c>
       <c r="L16">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="M16">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1297,7 +1294,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1305,37 +1302,37 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.11</v>
+        <v>0.01744186046511628</v>
       </c>
       <c r="C17">
-        <v>33</v>
+        <v>54</v>
       </c>
       <c r="D17">
-        <v>33</v>
+        <v>65</v>
       </c>
       <c r="E17">
-        <v>0</v>
+        <v>0.17</v>
       </c>
       <c r="F17">
-        <v>1</v>
+        <v>0.83</v>
       </c>
       <c r="G17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H17">
-        <v>267</v>
+        <v>3042</v>
       </c>
       <c r="J17" s="1" t="s">
         <v>39</v>
       </c>
       <c r="K17">
-        <v>0.734375</v>
+        <v>0.7301587301587301</v>
       </c>
       <c r="L17">
-        <v>94</v>
+        <v>46</v>
       </c>
       <c r="M17">
-        <v>94</v>
+        <v>46</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1347,7 +1344,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>34</v>
+        <v>17</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1355,37 +1352,37 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.01289906481780071</v>
+        <v>0.01218940459446789</v>
       </c>
       <c r="C18">
-        <v>40</v>
+        <v>26</v>
       </c>
       <c r="D18">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="E18">
-        <v>0.13</v>
+        <v>0.28</v>
       </c>
       <c r="F18">
-        <v>0.87</v>
+        <v>0.72</v>
       </c>
       <c r="G18" t="b">
         <v>1</v>
       </c>
       <c r="H18">
-        <v>3061</v>
+        <v>2107</v>
       </c>
       <c r="J18" s="1" t="s">
         <v>40</v>
       </c>
       <c r="K18">
-        <v>0.7301587301587301</v>
+        <v>0.7222222222222222</v>
       </c>
       <c r="L18">
-        <v>46</v>
+        <v>26</v>
       </c>
       <c r="M18">
-        <v>46</v>
+        <v>26</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1397,7 +1394,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>17</v>
+        <v>10</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -1405,13 +1402,13 @@
         <v>41</v>
       </c>
       <c r="K19">
-        <v>0.7222222222222222</v>
+        <v>0.7</v>
       </c>
       <c r="L19">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="M19">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1423,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -1431,13 +1428,13 @@
         <v>42</v>
       </c>
       <c r="K20">
-        <v>0.7083333333333334</v>
+        <v>0.6735294117647059</v>
       </c>
       <c r="L20">
-        <v>34</v>
+        <v>229</v>
       </c>
       <c r="M20">
-        <v>34</v>
+        <v>229</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1449,7 +1446,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>14</v>
+        <v>111</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -1457,13 +1454,13 @@
         <v>43</v>
       </c>
       <c r="K21">
-        <v>0.675</v>
+        <v>0.6511627906976745</v>
       </c>
       <c r="L21">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="M21">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1475,7 +1472,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -1483,13 +1480,13 @@
         <v>44</v>
       </c>
       <c r="K22">
-        <v>0.6588235294117647</v>
+        <v>0.6382978723404256</v>
       </c>
       <c r="L22">
-        <v>224</v>
+        <v>60</v>
       </c>
       <c r="M22">
-        <v>224</v>
+        <v>60</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1501,7 +1498,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>116</v>
+        <v>34</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -1509,13 +1506,13 @@
         <v>45</v>
       </c>
       <c r="K23">
-        <v>0.6063829787234043</v>
+        <v>0.6153846153846154</v>
       </c>
       <c r="L23">
-        <v>57</v>
+        <v>40</v>
       </c>
       <c r="M23">
-        <v>57</v>
+        <v>40</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1527,7 +1524,7 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>37</v>
+        <v>25</v>
       </c>
     </row>
     <row r="24" spans="1:17">
@@ -1535,25 +1532,25 @@
         <v>46</v>
       </c>
       <c r="K24">
-        <v>0.6006825938566553</v>
+        <v>0.6</v>
       </c>
       <c r="L24">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="M24">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="N24">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="O24">
-        <v>0.01000000000000001</v>
+        <v>0</v>
       </c>
       <c r="P24" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q24">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="25" spans="1:17">
@@ -1561,13 +1558,13 @@
         <v>47</v>
       </c>
       <c r="K25">
-        <v>0.5846153846153846</v>
+        <v>0.6</v>
       </c>
       <c r="L25">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="M25">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1579,7 +1576,7 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>27</v>
+        <v>20</v>
       </c>
     </row>
     <row r="26" spans="1:17">
@@ -1587,13 +1584,13 @@
         <v>48</v>
       </c>
       <c r="K26">
-        <v>0.58</v>
+        <v>0.5983263598326359</v>
       </c>
       <c r="L26">
-        <v>29</v>
+        <v>143</v>
       </c>
       <c r="M26">
-        <v>29</v>
+        <v>143</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1605,7 +1602,7 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>21</v>
+        <v>96</v>
       </c>
     </row>
     <row r="27" spans="1:17">
@@ -1613,13 +1610,13 @@
         <v>49</v>
       </c>
       <c r="K27">
-        <v>0.5774058577405857</v>
+        <v>0.550561797752809</v>
       </c>
       <c r="L27">
-        <v>138</v>
+        <v>49</v>
       </c>
       <c r="M27">
-        <v>138</v>
+        <v>49</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1631,7 +1628,7 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>101</v>
+        <v>40</v>
       </c>
     </row>
     <row r="28" spans="1:17">
@@ -1639,13 +1636,13 @@
         <v>50</v>
       </c>
       <c r="K28">
-        <v>0.5571428571428572</v>
+        <v>0.5428571428571428</v>
       </c>
       <c r="L28">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="M28">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -1657,7 +1654,7 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="29" spans="1:17">
@@ -1665,13 +1662,13 @@
         <v>51</v>
       </c>
       <c r="K29">
-        <v>0.5393258426966292</v>
+        <v>0.4102564102564102</v>
       </c>
       <c r="L29">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="M29">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -1683,7 +1680,7 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>41</v>
+        <v>46</v>
       </c>
     </row>
     <row r="30" spans="1:17">
@@ -1691,7 +1688,7 @@
         <v>52</v>
       </c>
       <c r="K30">
-        <v>0.5294117647058824</v>
+        <v>0.3698630136986301</v>
       </c>
       <c r="L30">
         <v>27</v>
@@ -1709,7 +1706,7 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>24</v>
+        <v>46</v>
       </c>
     </row>
     <row r="31" spans="1:17">
@@ -1717,51 +1714,25 @@
         <v>53</v>
       </c>
       <c r="K31">
-        <v>0.3972602739726027</v>
+        <v>0.01287284144427002</v>
       </c>
       <c r="L31">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="M31">
-        <v>29</v>
+        <v>57</v>
       </c>
       <c r="N31">
-        <v>1</v>
+        <v>0.72</v>
       </c>
       <c r="O31">
-        <v>0</v>
+        <v>0.28</v>
       </c>
       <c r="P31" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q31">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="32" spans="1:17">
-      <c r="J32" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="K32">
-        <v>0.01223721368057734</v>
-      </c>
-      <c r="L32">
-        <v>39</v>
-      </c>
-      <c r="M32">
-        <v>53</v>
-      </c>
-      <c r="N32">
-        <v>0.74</v>
-      </c>
-      <c r="O32">
-        <v>0.26</v>
-      </c>
-      <c r="P32" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q32">
-        <v>3148</v>
+        <v>3144</v>
       </c>
     </row>
   </sheetData>
